--- a/raw_data/20200818_saline/20200818_Sensor0_Test_50.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_50.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC6448-7BAC-4FDA-B49E-31EC5D580497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>44102.936804</v>
+        <v>44102.936803999997</v>
       </c>
       <c r="B2" s="1">
         <v>12.250816</v>
       </c>
       <c r="C2" s="1">
-        <v>910.080000</v>
+        <v>910.08</v>
       </c>
       <c r="D2" s="1">
-        <v>-174.536000</v>
+        <v>-174.536</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>44113.365718</v>
+        <v>44113.365718000001</v>
       </c>
       <c r="G2" s="1">
-        <v>12.253713</v>
+        <v>12.253712999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>924.217000</v>
+        <v>924.21699999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-149.283000</v>
+        <v>-149.28299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>44123.809475</v>
+        <v>44123.809475000002</v>
       </c>
       <c r="L2" s="1">
-        <v>12.256614</v>
+        <v>12.256614000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>943.646000</v>
+        <v>943.64599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-110.989000</v>
+        <v>-110.989</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>44134.321690</v>
+        <v>44134.321689999997</v>
       </c>
       <c r="Q2" s="1">
         <v>12.259534</v>
       </c>
       <c r="R2" s="1">
-        <v>950.421000</v>
+        <v>950.42100000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.276900</v>
+        <v>-98.276899999999998</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>44145.216811</v>
+        <v>44145.216810999998</v>
       </c>
       <c r="V2" s="1">
-        <v>12.262560</v>
+        <v>12.262560000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>957.447000</v>
+        <v>957.447</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.990700</v>
+        <v>-86.990700000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>44155.648142</v>
+        <v>44155.648141999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.265458</v>
+        <v>12.265458000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.737000</v>
+        <v>965.73699999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.258300</v>
+        <v>-79.258300000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>44166.178209</v>
+        <v>44166.178208999998</v>
       </c>
       <c r="AF2" s="1">
         <v>12.268383</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.276000</v>
+        <v>971.27599999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.494800</v>
+        <v>-79.494799999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>44176.606098</v>
+        <v>44176.606097999997</v>
       </c>
       <c r="AK2" s="1">
         <v>12.271279</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.664000</v>
+        <v>979.66399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.829800</v>
+        <v>-87.829800000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>44187.183780</v>
+        <v>44187.183779999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.274218</v>
+        <v>12.274217999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>989.093000</v>
+        <v>989.09299999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>44198.581386</v>
+        <v>44198.581385999998</v>
       </c>
       <c r="AU2" s="1">
         <v>12.277384</v>
       </c>
       <c r="AV2" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.947000</v>
+        <v>-124.947</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>44209.467580</v>
+        <v>44209.467579999997</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.280408</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.350000</v>
+        <v>1010.35</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.915000</v>
+        <v>-143.91499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>44220.128554</v>
+        <v>44220.128554000003</v>
       </c>
       <c r="BE2" s="1">
         <v>12.283369</v>
       </c>
       <c r="BF2" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.703000</v>
+        <v>-229.703</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>44230.810428</v>
+        <v>44230.810427999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.286336</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.430000</v>
+        <v>1135.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.671000</v>
+        <v>-367.67099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>44241.507640</v>
+        <v>44241.507640000003</v>
       </c>
       <c r="BO2" s="1">
         <v>12.289308</v>
       </c>
       <c r="BP2" s="1">
-        <v>1267.300000</v>
+        <v>1267.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.583000</v>
+        <v>-581.58299999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>44252.236608</v>
+        <v>44252.236607999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.292288</v>
+        <v>12.292287999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.870000</v>
+        <v>1415.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-810.541000</v>
+        <v>-810.54100000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>44263.626705</v>
+        <v>44263.626705000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.295452</v>
+        <v>12.295451999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1579.330000</v>
+        <v>1579.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1050.720000</v>
+        <v>-1050.72</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>44274.631937</v>
+        <v>44274.631936999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.298509</v>
+        <v>12.298508999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1995.160000</v>
+        <v>1995.16</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1611.940000</v>
+        <v>-1611.94</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>44103.337108</v>
       </c>
       <c r="B3" s="1">
-        <v>12.250927</v>
+        <v>12.250927000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>910.176000</v>
+        <v>910.17600000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-174.444000</v>
+        <v>-174.44399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>44113.709909</v>
+        <v>44113.709908999997</v>
       </c>
       <c r="G3" s="1">
-        <v>12.253808</v>
+        <v>12.253807999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>923.894000</v>
+        <v>923.89400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-149.064000</v>
+        <v>-149.06399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>44124.195832</v>
+        <v>44124.195831999998</v>
       </c>
       <c r="L3" s="1">
-        <v>12.256721</v>
+        <v>12.256721000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>943.634000</v>
+        <v>943.63400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-110.976000</v>
+        <v>-110.976</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>44135.055243</v>
+        <v>44135.055243000003</v>
       </c>
       <c r="Q3" s="1">
         <v>12.259738</v>
       </c>
       <c r="R3" s="1">
-        <v>950.437000</v>
+        <v>950.43700000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.264300</v>
+        <v>-98.264300000000006</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>44145.598483</v>
+        <v>44145.598483000002</v>
       </c>
       <c r="V3" s="1">
-        <v>12.262666</v>
+        <v>12.262665999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>957.516000</v>
+        <v>957.51599999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.989100</v>
+        <v>-86.989099999999993</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>44155.998331</v>
+        <v>44155.998331000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.265555</v>
+        <v>12.265555000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.707000</v>
+        <v>965.70699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.276800</v>
+        <v>-79.276799999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>44166.529873</v>
+        <v>44166.529872999999</v>
       </c>
       <c r="AF3" s="1">
         <v>12.268481</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.177000</v>
+        <v>971.17700000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.470300</v>
+        <v>-79.470299999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44177.295538</v>
+        <v>44177.295537999998</v>
       </c>
       <c r="AK3" s="1">
         <v>12.271471</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.671000</v>
+        <v>979.67100000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.850500</v>
+        <v>-87.850499999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>44187.895576</v>
+        <v>44187.895576000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.274415</v>
+        <v>12.274414999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>989.124000</v>
+        <v>989.12400000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.117000</v>
+        <v>-103.117</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>44199.029733</v>
+        <v>44199.029733000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.277508</v>
+        <v>12.277507999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1000.630000</v>
+        <v>1000.63</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.960000</v>
+        <v>-124.96</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>44209.843510</v>
+        <v>44209.843509999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.280512</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.899000</v>
+        <v>-143.899</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>44220.489144</v>
+        <v>44220.489143999999</v>
       </c>
       <c r="BE3" s="1">
         <v>12.283469</v>
       </c>
       <c r="BF3" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.693000</v>
+        <v>-229.69300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>44231.198794</v>
+        <v>44231.198794000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.286444</v>
+        <v>12.286443999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.440000</v>
+        <v>1135.44</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.658000</v>
+        <v>-367.65800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>44241.926733</v>
@@ -933,270 +1349,270 @@
         <v>12.289424</v>
       </c>
       <c r="BP3" s="1">
-        <v>1267.310000</v>
+        <v>1267.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.634000</v>
+        <v>-581.63400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>44252.688746</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.292414</v>
+        <v>12.292414000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.910000</v>
+        <v>1415.91</v>
       </c>
       <c r="BV3" s="1">
-        <v>-810.602000</v>
+        <v>-810.60199999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>44263.794847</v>
+        <v>44263.794846999997</v>
       </c>
       <c r="BY3" s="1">
         <v>12.295499</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1579.270000</v>
+        <v>1579.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1050.680000</v>
+        <v>-1050.68</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>44275.197408</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.298666</v>
+        <v>12.298666000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1995.150000</v>
+        <v>1995.15</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1612.160000</v>
+        <v>-1612.16</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>44103.684772</v>
+        <v>44103.684772000001</v>
       </c>
       <c r="B4" s="1">
-        <v>12.251024</v>
+        <v>12.251023999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>910.212000</v>
+        <v>910.21199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-174.398000</v>
+        <v>-174.398</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>44114.398854</v>
+        <v>44114.398853999999</v>
       </c>
       <c r="G4" s="1">
-        <v>12.254000</v>
+        <v>12.254</v>
       </c>
       <c r="H4" s="1">
-        <v>924.057000</v>
+        <v>924.05700000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-149.655000</v>
+        <v>-149.655</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>44124.887255</v>
+        <v>44124.887255000001</v>
       </c>
       <c r="L4" s="1">
-        <v>12.256913</v>
+        <v>12.256913000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>943.679000</v>
+        <v>943.67899999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-110.950000</v>
+        <v>-110.95</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>44135.405418</v>
+        <v>44135.405418000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.259835</v>
+        <v>12.259835000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>950.349000</v>
+        <v>950.34900000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.318500</v>
+        <v>-98.3185</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>44145.940443</v>
       </c>
       <c r="V4" s="1">
-        <v>12.262761</v>
+        <v>12.262760999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>957.533000</v>
+        <v>957.53300000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.026100</v>
+        <v>-87.0261</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>44156.350974</v>
+        <v>44156.350974000001</v>
       </c>
       <c r="AA4" s="1">
         <v>12.265653</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.766000</v>
+        <v>965.76599999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.255400</v>
+        <v>-79.255399999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>44167.186611</v>
+        <v>44167.186610999997</v>
       </c>
       <c r="AF4" s="1">
         <v>12.268663</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.249000</v>
+        <v>971.24900000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.520500</v>
+        <v>-79.520499999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44177.685425</v>
+        <v>44177.685425000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.271579</v>
+        <v>12.271578999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.676000</v>
+        <v>979.67600000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.852900</v>
+        <v>-87.852900000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>44188.308707</v>
+        <v>44188.308706999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.274530</v>
+        <v>12.27453</v>
       </c>
       <c r="AQ4" s="1">
-        <v>989.108000</v>
+        <v>989.10799999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>44199.412149</v>
+        <v>44199.412149000003</v>
       </c>
       <c r="AU4" s="1">
         <v>12.277614</v>
       </c>
       <c r="AV4" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>44210.188726</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.280608</v>
+        <v>12.280608000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.380000</v>
+        <v>1010.38</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>44220.848745</v>
+        <v>44220.848745000003</v>
       </c>
       <c r="BE4" s="1">
         <v>12.283569</v>
       </c>
       <c r="BF4" s="1">
-        <v>1055.800000</v>
+        <v>1055.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.713000</v>
+        <v>-229.71299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>44231.626810</v>
+        <v>44231.626810000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.286563</v>
+        <v>12.286562999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.430000</v>
+        <v>1135.43</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.647000</v>
+        <v>-367.64699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>44242.329484</v>
+        <v>44242.329484000002</v>
       </c>
       <c r="BO4" s="1">
         <v>12.289536</v>
       </c>
       <c r="BP4" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.614000</v>
+        <v>-581.61400000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>44253.113997</v>
@@ -1205,13 +1621,13 @@
         <v>12.292532</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.850000</v>
+        <v>1415.85</v>
       </c>
       <c r="BV4" s="1">
-        <v>-810.578000</v>
+        <v>-810.57799999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>44264.211486</v>
@@ -1220,90 +1636,90 @@
         <v>12.295614</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1579.310000</v>
+        <v>1579.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1050.730000</v>
+        <v>-1050.73</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>44275.716228</v>
+        <v>44275.716227999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.298810</v>
+        <v>12.29881</v>
       </c>
       <c r="CE4" s="1">
-        <v>1994.290000</v>
+        <v>1994.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1610.850000</v>
+        <v>-1610.85</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>44104.366804</v>
+        <v>44104.366803999998</v>
       </c>
       <c r="B5" s="1">
         <v>12.251213</v>
       </c>
       <c r="C5" s="1">
-        <v>910.174000</v>
+        <v>910.17399999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-174.422000</v>
+        <v>-174.422</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>44114.743572</v>
+        <v>44114.743571999999</v>
       </c>
       <c r="G5" s="1">
         <v>12.254095</v>
       </c>
       <c r="H5" s="1">
-        <v>924.112000</v>
+        <v>924.11199999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-149.236000</v>
+        <v>-149.23599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>44125.233463</v>
+        <v>44125.233462999997</v>
       </c>
       <c r="L5" s="1">
         <v>12.257009</v>
       </c>
       <c r="M5" s="1">
-        <v>943.703000</v>
+        <v>943.70299999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-110.964000</v>
+        <v>-110.964</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>44135.755625</v>
+        <v>44135.755624999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.259932</v>
+        <v>12.259931999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>950.374000</v>
+        <v>950.37400000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.320100</v>
+        <v>-98.320099999999996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>44146.593706</v>
@@ -1312,88 +1728,88 @@
         <v>12.262943</v>
       </c>
       <c r="W5" s="1">
-        <v>957.537000</v>
+        <v>957.53700000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.933100</v>
+        <v>-86.933099999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>44157.031485</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.265842</v>
+        <v>12.265841999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.731000</v>
+        <v>965.73099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.236900</v>
+        <v>-79.236900000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>44167.563536</v>
+        <v>44167.563536000001</v>
       </c>
       <c r="AF5" s="1">
         <v>12.268768</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.367000</v>
+        <v>971.36699999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.531500</v>
+        <v>-79.531499999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>44178.037056</v>
+        <v>44178.037056000001</v>
       </c>
       <c r="AK5" s="1">
         <v>12.271677</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.650000</v>
+        <v>979.65</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.851000</v>
+        <v>-87.850999999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>44188.689634</v>
+        <v>44188.689634000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.274636</v>
+        <v>12.274635999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>989.103000</v>
+        <v>989.10299999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>44199.774724</v>
+        <v>44199.774724000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.277715</v>
+        <v>12.277715000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.952000</v>
+        <v>-124.952</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>44210.608342</v>
@@ -1402,180 +1818,180 @@
         <v>12.280725</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>44221.265415</v>
+        <v>44221.265415000002</v>
       </c>
       <c r="BE5" s="1">
         <v>12.283685</v>
       </c>
       <c r="BF5" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.724000</v>
+        <v>-229.72399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>44231.951193</v>
+        <v>44231.951193000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.286653</v>
+        <v>12.286652999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.430000</v>
+        <v>1135.43</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.652000</v>
+        <v>-367.65199999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>44242.725788</v>
+        <v>44242.725788000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.289646</v>
+        <v>12.289645999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.588000</v>
+        <v>-581.58799999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>44253.529645</v>
+        <v>44253.529645000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.292647</v>
+        <v>12.292647000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.810000</v>
+        <v>1415.81</v>
       </c>
       <c r="BV5" s="1">
-        <v>-810.616000</v>
+        <v>-810.61599999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>44264.633582</v>
+        <v>44264.633582000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.295732</v>
+        <v>12.295731999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1579.300000</v>
+        <v>1579.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1050.750000</v>
+        <v>-1050.75</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>44276.235999</v>
+        <v>44276.235998999997</v>
       </c>
       <c r="CD5" s="1">
         <v>12.298954</v>
       </c>
       <c r="CE5" s="1">
-        <v>1994.810000</v>
+        <v>1994.81</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1611.180000</v>
+        <v>-1611.18</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>44104.708513</v>
+        <v>44104.708512999998</v>
       </c>
       <c r="B6" s="1">
         <v>12.251308</v>
       </c>
       <c r="C6" s="1">
-        <v>910.212000</v>
+        <v>910.21199999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-174.474000</v>
+        <v>-174.47399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>44115.092260</v>
+        <v>44115.092259999998</v>
       </c>
       <c r="G6" s="1">
         <v>12.254192</v>
       </c>
       <c r="H6" s="1">
-        <v>923.627000</v>
+        <v>923.62699999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-149.202000</v>
+        <v>-149.202</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>44125.892149</v>
+        <v>44125.892148999999</v>
       </c>
       <c r="L6" s="1">
         <v>12.257192</v>
       </c>
       <c r="M6" s="1">
-        <v>943.594000</v>
+        <v>943.59400000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-110.799000</v>
+        <v>-110.79900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>44136.414775</v>
+        <v>44136.414774999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.260115</v>
+        <v>12.260115000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>950.440000</v>
+        <v>950.44</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.294400</v>
+        <v>-98.294399999999996</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>44146.974107</v>
+        <v>44146.974107000002</v>
       </c>
       <c r="V6" s="1">
         <v>12.263048</v>
       </c>
       <c r="W6" s="1">
-        <v>957.449000</v>
+        <v>957.44899999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.990100</v>
+        <v>-86.990099999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>44157.395052</v>
@@ -1584,133 +2000,133 @@
         <v>12.265943</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.829000</v>
+        <v>965.82899999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.326900</v>
+        <v>-79.326899999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>44167.899326</v>
+        <v>44167.899325999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.268861</v>
+        <v>12.268860999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.201000</v>
+        <v>971.20100000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.531100</v>
+        <v>-79.531099999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44178.381805</v>
+        <v>44178.381804999997</v>
       </c>
       <c r="AK6" s="1">
         <v>12.271773</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.649000</v>
+        <v>979.649</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.881000</v>
+        <v>-87.881</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>44189.078013</v>
+        <v>44189.078012999998</v>
       </c>
       <c r="AP6" s="1">
         <v>12.274744</v>
       </c>
       <c r="AQ6" s="1">
-        <v>989.121000</v>
+        <v>989.12099999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>44200.204261</v>
+        <v>44200.204260999999</v>
       </c>
       <c r="AU6" s="1">
         <v>12.277835</v>
       </c>
       <c r="AV6" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.959000</v>
+        <v>-124.959</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>44210.906474</v>
+        <v>44210.906474000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.280807</v>
+        <v>12.280806999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.913000</v>
+        <v>-143.91300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>44221.570424</v>
+        <v>44221.570423999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.283770</v>
+        <v>12.283770000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.763000</v>
+        <v>-229.76300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>44232.323689</v>
+        <v>44232.323688999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.286757</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.430000</v>
+        <v>1135.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.652000</v>
+        <v>-367.65199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>44243.145435</v>
+        <v>44243.145434999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.289763</v>
+        <v>12.289763000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.607000</v>
+        <v>-581.60699999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>44253.944336</v>
@@ -1719,317 +2135,317 @@
         <v>12.292762</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="BV6" s="1">
-        <v>-810.571000</v>
+        <v>-810.57100000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>44265.068078</v>
+        <v>44265.068077999997</v>
       </c>
       <c r="BY6" s="1">
         <v>12.295852</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1579.390000</v>
+        <v>1579.39</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1050.780000</v>
+        <v>-1050.78</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>44276.789573</v>
+        <v>44276.789573000002</v>
       </c>
       <c r="CD6" s="1">
         <v>12.299108</v>
       </c>
       <c r="CE6" s="1">
-        <v>1995.630000</v>
+        <v>1995.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1612.090000</v>
+        <v>-1612.09</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>44105.050257</v>
+        <v>44105.050257000003</v>
       </c>
       <c r="B7" s="1">
         <v>12.251403</v>
       </c>
       <c r="C7" s="1">
-        <v>910.118000</v>
+        <v>910.11800000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-174.463000</v>
+        <v>-174.46299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>44115.754916</v>
+        <v>44115.754915999998</v>
       </c>
       <c r="G7" s="1">
-        <v>12.254376</v>
+        <v>12.254376000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>923.883000</v>
+        <v>923.88300000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-149.623000</v>
+        <v>-149.62299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>44126.268614</v>
+        <v>44126.268614000001</v>
       </c>
       <c r="L7" s="1">
-        <v>12.257297</v>
+        <v>12.257296999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>943.635000</v>
+        <v>943.63499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-110.977000</v>
+        <v>-110.977</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>44136.801657</v>
+        <v>44136.801657000004</v>
       </c>
       <c r="Q7" s="1">
         <v>12.260223</v>
       </c>
       <c r="R7" s="1">
-        <v>950.430000</v>
+        <v>950.43</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.330500</v>
+        <v>-98.330500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>44147.320313</v>
+        <v>44147.320312999997</v>
       </c>
       <c r="V7" s="1">
         <v>12.263145</v>
       </c>
       <c r="W7" s="1">
-        <v>957.467000</v>
+        <v>957.46699999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.920600</v>
+        <v>-86.920599999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>44157.748204</v>
+        <v>44157.748204000003</v>
       </c>
       <c r="AA7" s="1">
         <v>12.266041</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.692000</v>
+        <v>965.69200000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.171900</v>
+        <v>-79.171899999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>44168.246349</v>
+        <v>44168.246349000001</v>
       </c>
       <c r="AF7" s="1">
         <v>12.268957</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.235000</v>
+        <v>971.23500000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.551200</v>
+        <v>-79.551199999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>44178.805888</v>
+        <v>44178.805888000003</v>
       </c>
       <c r="AK7" s="1">
         <v>12.271891</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.651000</v>
+        <v>979.65099999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.853100</v>
+        <v>-87.853099999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>44189.503569</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.274862</v>
+        <v>12.274862000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>989.086000</v>
+        <v>989.08600000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.121000</v>
+        <v>-103.121</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>44200.504339</v>
+        <v>44200.504338999999</v>
       </c>
       <c r="AU7" s="1">
         <v>12.277918</v>
       </c>
       <c r="AV7" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.960000</v>
+        <v>-124.96</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>44211.267028</v>
+        <v>44211.267028000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.280908</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.380000</v>
+        <v>1010.38</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.939000</v>
+        <v>-143.93899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>44221.932503</v>
+        <v>44221.932503000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.283870</v>
+        <v>12.28387</v>
       </c>
       <c r="BF7" s="1">
-        <v>1055.860000</v>
+        <v>1055.8599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.748000</v>
+        <v>-229.74799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>44232.725450</v>
+        <v>44232.725449999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.286868</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.656000</v>
+        <v>-367.65600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>44243.561049</v>
+        <v>44243.561049000004</v>
       </c>
       <c r="BO7" s="1">
         <v>12.289878</v>
       </c>
       <c r="BP7" s="1">
-        <v>1267.300000</v>
+        <v>1267.3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.600000</v>
+        <v>-581.6</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>44254.770635</v>
+        <v>44254.770635000001</v>
       </c>
       <c r="BT7" s="1">
         <v>12.292992</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.810000</v>
+        <v>1415.81</v>
       </c>
       <c r="BV7" s="1">
-        <v>-810.619000</v>
+        <v>-810.61900000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>44265.503565</v>
+        <v>44265.503564999999</v>
       </c>
       <c r="BY7" s="1">
         <v>12.295973</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1579.380000</v>
+        <v>1579.38</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1050.800000</v>
+        <v>-1050.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>44277.317277</v>
+        <v>44277.317277000002</v>
       </c>
       <c r="CD7" s="1">
         <v>12.299255</v>
       </c>
       <c r="CE7" s="1">
-        <v>1994.090000</v>
+        <v>1994.09</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1611.160000</v>
+        <v>-1611.16</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>44105.705013</v>
+        <v>44105.705012999999</v>
       </c>
       <c r="B8" s="1">
         <v>12.251585</v>
       </c>
       <c r="C8" s="1">
-        <v>910.046000</v>
+        <v>910.04600000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-174.310000</v>
+        <v>-174.31</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>44116.125923</v>
@@ -2038,118 +2454,118 @@
         <v>12.254479</v>
       </c>
       <c r="H8" s="1">
-        <v>924.141000</v>
+        <v>924.14099999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-149.279000</v>
+        <v>-149.279</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>44126.614326</v>
+        <v>44126.614326000003</v>
       </c>
       <c r="L8" s="1">
         <v>12.257393</v>
       </c>
       <c r="M8" s="1">
-        <v>943.670000</v>
+        <v>943.67</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.179000</v>
+        <v>-111.179</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>44137.149160</v>
+        <v>44137.149160000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.260319</v>
+        <v>12.260319000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>950.409000</v>
+        <v>950.40899999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.367100</v>
+        <v>-98.367099999999994</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>44147.664899</v>
+        <v>44147.664899000003</v>
       </c>
       <c r="V8" s="1">
-        <v>12.263240</v>
+        <v>12.26324</v>
       </c>
       <c r="W8" s="1">
-        <v>957.489000</v>
+        <v>957.48900000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.007600</v>
+        <v>-87.007599999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>44158.298268</v>
+        <v>44158.298267999999</v>
       </c>
       <c r="AA8" s="1">
         <v>12.266194</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.696000</v>
+        <v>965.69600000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.254400</v>
+        <v>-79.254400000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>44168.667630</v>
+        <v>44168.667630000004</v>
       </c>
       <c r="AF8" s="1">
         <v>12.269074</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.163000</v>
+        <v>971.16300000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.579600</v>
+        <v>-79.579599999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>44179.080671</v>
+        <v>44179.080671000003</v>
       </c>
       <c r="AK8" s="1">
         <v>12.271967</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.656000</v>
+        <v>979.65599999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.851800</v>
+        <v>-87.851799999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>44189.799185</v>
+        <v>44189.799185000003</v>
       </c>
       <c r="AP8" s="1">
         <v>12.274944</v>
       </c>
       <c r="AQ8" s="1">
-        <v>989.109000</v>
+        <v>989.10900000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>44200.867907</v>
@@ -2158,180 +2574,180 @@
         <v>12.278019</v>
       </c>
       <c r="AV8" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.972000</v>
+        <v>-124.97199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>44211.624148</v>
+        <v>44211.624148000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.281007</v>
+        <v>12.281007000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.921000</v>
+        <v>-143.92099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>44222.294583</v>
+        <v>44222.294583000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.283971</v>
+        <v>12.283970999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.715000</v>
+        <v>-229.715</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>44233.474443</v>
+        <v>44233.474442999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.287076</v>
+        <v>12.287076000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.410000</v>
+        <v>1135.4100000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.654000</v>
+        <v>-367.654</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>44243.960330</v>
+        <v>44243.960330000002</v>
       </c>
       <c r="BO8" s="1">
         <v>12.289989</v>
       </c>
       <c r="BP8" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.609000</v>
+        <v>-581.60900000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>44255.186283</v>
+        <v>44255.186283000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.293107</v>
+        <v>12.293106999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-810.589000</v>
+        <v>-810.58900000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>44265.924668</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.296090</v>
+        <v>12.29609</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1579.420000</v>
+        <v>1579.42</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1050.850000</v>
+        <v>-1050.8499999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>44278.142620</v>
+        <v>44278.142619999999</v>
       </c>
       <c r="CD8" s="1">
         <v>12.299484</v>
       </c>
       <c r="CE8" s="1">
-        <v>1993.090000</v>
+        <v>1993.09</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1612.550000</v>
+        <v>-1612.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>44106.074529</v>
+        <v>44106.074528999998</v>
       </c>
       <c r="B9" s="1">
         <v>12.251687</v>
       </c>
       <c r="C9" s="1">
-        <v>910.330000</v>
+        <v>910.33</v>
       </c>
       <c r="D9" s="1">
-        <v>-174.279000</v>
+        <v>-174.279</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>44116.470147</v>
       </c>
       <c r="G9" s="1">
-        <v>12.254575</v>
+        <v>12.254575000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>923.730000</v>
+        <v>923.73</v>
       </c>
       <c r="I9" s="1">
-        <v>-149.307000</v>
+        <v>-149.30699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>44126.960070</v>
+        <v>44126.960070000001</v>
       </c>
       <c r="L9" s="1">
         <v>12.257489</v>
       </c>
       <c r="M9" s="1">
-        <v>943.600000</v>
+        <v>943.6</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.191000</v>
+        <v>-111.191</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>44137.496086</v>
+        <v>44137.496085999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.260416</v>
+        <v>12.260415999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>950.391000</v>
+        <v>950.39099999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.405500</v>
+        <v>-98.405500000000004</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>44148.087626</v>
@@ -2340,13 +2756,13 @@
         <v>12.263358</v>
       </c>
       <c r="W9" s="1">
-        <v>957.457000</v>
+        <v>957.45699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.957900</v>
+        <v>-86.957899999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>44158.446075</v>
@@ -2355,420 +2771,420 @@
         <v>12.266235</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.726000</v>
+        <v>965.726</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.214500</v>
+        <v>-79.214500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>44168.940925</v>
+        <v>44168.940925000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.269150</v>
+        <v>12.26915</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.116000</v>
+        <v>971.11599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.522500</v>
+        <v>-79.522499999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44179.430854</v>
+        <v>44179.430853999998</v>
       </c>
       <c r="AK9" s="1">
         <v>12.272064</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.659000</v>
+        <v>979.65899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.868700</v>
+        <v>-87.868700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>44190.238640</v>
+        <v>44190.238640000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.275066</v>
+        <v>12.275066000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>989.112000</v>
+        <v>989.11199999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>44201.236435</v>
+        <v>44201.236434999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.278121</v>
+        <v>12.278121000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1000.630000</v>
+        <v>1000.63</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.952000</v>
+        <v>-124.952</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>44212.346819</v>
+        <v>44212.346818999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.281207</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.920000</v>
+        <v>-143.91999999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>44223.023701</v>
+        <v>44223.023700999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.284173</v>
+        <v>12.284172999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1055.840000</v>
+        <v>1055.8399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.747000</v>
+        <v>-229.74700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>44233.879175</v>
+        <v>44233.879175000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>12.287189</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.440000</v>
+        <v>1135.44</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.658000</v>
+        <v>-367.65800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>44244.362617</v>
+        <v>44244.362616999999</v>
       </c>
       <c r="BO9" s="1">
         <v>12.290101</v>
       </c>
       <c r="BP9" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.582000</v>
+        <v>-581.58199999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>44255.616842</v>
+        <v>44255.616842000003</v>
       </c>
       <c r="BT9" s="1">
         <v>12.293227</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.710000</v>
+        <v>1415.71</v>
       </c>
       <c r="BV9" s="1">
-        <v>-810.609000</v>
+        <v>-810.60900000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>44266.658283</v>
+        <v>44266.658282999997</v>
       </c>
       <c r="BY9" s="1">
         <v>12.296294</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1579.350000</v>
+        <v>1579.35</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1050.750000</v>
+        <v>-1050.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>44278.356924</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.299544</v>
+        <v>12.299543999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1994.420000</v>
+        <v>1994.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1612.920000</v>
+        <v>-1612.92</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>44106.422193</v>
+        <v>44106.422192999999</v>
       </c>
       <c r="B10" s="1">
-        <v>12.251784</v>
+        <v>12.251784000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>910.292000</v>
+        <v>910.29200000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-174.424000</v>
+        <v>-174.42400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>44116.820323</v>
       </c>
       <c r="G10" s="1">
-        <v>12.254672</v>
+        <v>12.254671999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>923.732000</v>
+        <v>923.73199999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-149.517000</v>
+        <v>-149.517</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>44127.377667</v>
+        <v>44127.377667000001</v>
       </c>
       <c r="L10" s="1">
         <v>12.257605</v>
       </c>
       <c r="M10" s="1">
-        <v>943.757000</v>
+        <v>943.75699999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.152000</v>
+        <v>-111.152</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>44137.922614</v>
+        <v>44137.922614000003</v>
       </c>
       <c r="Q10" s="1">
         <v>12.260534</v>
       </c>
       <c r="R10" s="1">
-        <v>950.395000</v>
+        <v>950.39499999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.386200</v>
+        <v>-98.386200000000002</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>44148.365417</v>
+        <v>44148.365417000001</v>
       </c>
       <c r="V10" s="1">
-        <v>12.263435</v>
+        <v>12.263434999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>957.608000</v>
+        <v>957.60799999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.917700</v>
+        <v>-86.917699999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>44158.795259</v>
+        <v>44158.795258999999</v>
       </c>
       <c r="AA10" s="1">
         <v>12.266332</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.766000</v>
+        <v>965.76599999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.301600</v>
+        <v>-79.301599999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>44169.286667</v>
       </c>
       <c r="AF10" s="1">
-        <v>12.269246</v>
+        <v>12.269246000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.252000</v>
+        <v>971.25199999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.634400</v>
+        <v>-79.634399999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>44179.778675</v>
+        <v>44179.778675000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.272161</v>
+        <v>12.272161000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.685000</v>
+        <v>979.68499999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.854200</v>
+        <v>-87.854200000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>44190.845248</v>
+        <v>44190.845247999998</v>
       </c>
       <c r="AP10" s="1">
         <v>12.275235</v>
       </c>
       <c r="AQ10" s="1">
-        <v>989.113000</v>
+        <v>989.11300000000006</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>44201.962576</v>
+        <v>44201.962575999998</v>
       </c>
       <c r="AU10" s="1">
         <v>12.278323</v>
       </c>
       <c r="AV10" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.960000</v>
+        <v>-124.96</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>44212.721827</v>
+        <v>44212.721827000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.281312</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.907000</v>
+        <v>-143.90700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>44223.399172</v>
+        <v>44223.399171999998</v>
       </c>
       <c r="BE10" s="1">
         <v>12.284278</v>
       </c>
       <c r="BF10" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.715000</v>
+        <v>-229.715</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>44234.250679</v>
+        <v>44234.250678999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.287292</v>
+        <v>12.287292000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.410000</v>
+        <v>1135.4100000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.654000</v>
+        <v>-367.654</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>44245.103610</v>
+        <v>44245.103609999998</v>
       </c>
       <c r="BO10" s="1">
         <v>12.290307</v>
       </c>
       <c r="BP10" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.595000</v>
+        <v>-581.59500000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>44256.059250</v>
+        <v>44256.059249999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.293350</v>
+        <v>12.29335</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.710000</v>
+        <v>1415.71</v>
       </c>
       <c r="BV10" s="1">
-        <v>-810.655000</v>
+        <v>-810.65499999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>44266.773325</v>
+        <v>44266.773325000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.296326</v>
+        <v>12.296326000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1579.210000</v>
+        <v>1579.21</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1050.760000</v>
+        <v>-1050.76</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>44278.871777</v>
@@ -2777,574 +3193,574 @@
         <v>12.299687</v>
       </c>
       <c r="CE10" s="1">
-        <v>1994.350000</v>
+        <v>1994.35</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1612.990000</v>
+        <v>-1612.99</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>44106.761952</v>
+        <v>44106.761952000001</v>
       </c>
       <c r="B11" s="1">
         <v>12.251878</v>
       </c>
       <c r="C11" s="1">
-        <v>910.141000</v>
+        <v>910.14099999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-174.485000</v>
+        <v>-174.48500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>44117.252832</v>
+        <v>44117.252831999998</v>
       </c>
       <c r="G11" s="1">
         <v>12.254792</v>
       </c>
       <c r="H11" s="1">
-        <v>923.602000</v>
+        <v>923.60199999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-149.669000</v>
+        <v>-149.66900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>44127.653939</v>
+        <v>44127.653939000003</v>
       </c>
       <c r="L11" s="1">
-        <v>12.257682</v>
+        <v>12.257682000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>943.630000</v>
+        <v>943.63</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.185000</v>
+        <v>-111.185</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>44138.194917</v>
+        <v>44138.194917000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.260610</v>
+        <v>12.26061</v>
       </c>
       <c r="R11" s="1">
-        <v>950.396000</v>
+        <v>950.39599999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.372600</v>
+        <v>-98.372600000000006</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>44148.706633</v>
+        <v>44148.706633000002</v>
       </c>
       <c r="V11" s="1">
-        <v>12.263530</v>
+        <v>12.263529999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>957.473000</v>
+        <v>957.47299999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.989400</v>
+        <v>-86.989400000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>44159.142490</v>
+        <v>44159.142489999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.266428</v>
+        <v>12.266427999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.678000</v>
+        <v>965.678</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.245900</v>
+        <v>-79.245900000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>44169.627420</v>
+        <v>44169.627419999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.269341</v>
+        <v>12.269341000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.147000</v>
+        <v>971.14700000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.495000</v>
+        <v>-79.495000000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>44180.473901</v>
+        <v>44180.473900999998</v>
       </c>
       <c r="AK11" s="1">
         <v>12.272354</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.659000</v>
+        <v>979.65899999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.861100</v>
+        <v>-87.861099999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>44191.243039</v>
+        <v>44191.243039000001</v>
       </c>
       <c r="AP11" s="1">
         <v>12.275345</v>
       </c>
       <c r="AQ11" s="1">
-        <v>989.099000</v>
+        <v>989.09900000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.113000</v>
+        <v>-103.113</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>44202.358880</v>
+        <v>44202.35888</v>
       </c>
       <c r="AU11" s="1">
         <v>12.278433</v>
       </c>
       <c r="AV11" s="1">
-        <v>1000.660000</v>
+        <v>1000.66</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.966000</v>
+        <v>-124.96599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>44213.101235</v>
+        <v>44213.101235000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.281417</v>
+        <v>12.281416999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>44224.070292</v>
+        <v>44224.070291999997</v>
       </c>
       <c r="BE11" s="1">
         <v>12.284464</v>
       </c>
       <c r="BF11" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.732000</v>
+        <v>-229.732</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>44234.930661</v>
+        <v>44234.930660999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.287481</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.390000</v>
+        <v>1135.3900000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.669000</v>
+        <v>-367.66899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>44245.595639</v>
+        <v>44245.595638999999</v>
       </c>
       <c r="BO11" s="1">
         <v>12.290443</v>
       </c>
       <c r="BP11" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.646000</v>
+        <v>-581.64599999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>44256.458057</v>
+        <v>44256.458057000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.293461</v>
+        <v>12.293461000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="BV11" s="1">
-        <v>-810.547000</v>
+        <v>-810.54700000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>44267.222700</v>
+        <v>44267.222699999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.296451</v>
+        <v>12.296450999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1579.250000</v>
+        <v>1579.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1050.740000</v>
+        <v>-1050.74</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>44279.423291</v>
+        <v>44279.423290999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.299840</v>
+        <v>12.29984</v>
       </c>
       <c r="CE11" s="1">
-        <v>1993.440000</v>
+        <v>1993.44</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1612.420000</v>
+        <v>-1612.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>44107.178592</v>
+        <v>44107.178591999997</v>
       </c>
       <c r="B12" s="1">
         <v>12.251994</v>
       </c>
       <c r="C12" s="1">
-        <v>910.370000</v>
+        <v>910.37</v>
       </c>
       <c r="D12" s="1">
-        <v>-174.291000</v>
+        <v>-174.291</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>44117.531088</v>
+        <v>44117.531088000003</v>
       </c>
       <c r="G12" s="1">
-        <v>12.254870</v>
+        <v>12.25487</v>
       </c>
       <c r="H12" s="1">
-        <v>923.956000</v>
+        <v>923.95600000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-149.285000</v>
+        <v>-149.285</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>44128.000675</v>
+        <v>44128.000675000003</v>
       </c>
       <c r="L12" s="1">
         <v>12.257778</v>
       </c>
       <c r="M12" s="1">
-        <v>943.651000</v>
+        <v>943.65099999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.081000</v>
+        <v>-111.081</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>44138.546084</v>
+        <v>44138.546084000001</v>
       </c>
       <c r="Q12" s="1">
         <v>12.260707</v>
       </c>
       <c r="R12" s="1">
-        <v>950.388000</v>
+        <v>950.38800000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.427300</v>
+        <v>-98.427300000000002</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>44149.051848</v>
+        <v>44149.051848000003</v>
       </c>
       <c r="V12" s="1">
         <v>12.263626</v>
       </c>
       <c r="W12" s="1">
-        <v>957.440000</v>
+        <v>957.44</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.974100</v>
+        <v>-86.974100000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>44159.835897</v>
+        <v>44159.835896999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>12.266621</v>
+        <v>12.266621000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.757000</v>
+        <v>965.75699999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.305500</v>
+        <v>-79.305499999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>44170.313883</v>
+        <v>44170.313883000003</v>
       </c>
       <c r="AF12" s="1">
         <v>12.269532</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.185000</v>
+        <v>971.18499999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.531800</v>
+        <v>-79.531800000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>44180.820605</v>
+        <v>44180.820605000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.272450</v>
+        <v>12.272449999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.635000</v>
+        <v>979.63499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.869300</v>
+        <v>-87.869299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>44191.621519</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.275450</v>
+        <v>12.275449999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>989.126000</v>
+        <v>989.12599999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.115000</v>
+        <v>-103.11499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>44202.722479</v>
+        <v>44202.722478999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.278534</v>
+        <v>12.278534000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.957000</v>
+        <v>-124.95699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>44213.767859</v>
       </c>
       <c r="AZ12" s="1">
-        <v>12.281602</v>
+        <v>12.281601999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.926000</v>
+        <v>-143.92599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>44224.482436</v>
+        <v>44224.482435999998</v>
       </c>
       <c r="BE12" s="1">
         <v>12.284578</v>
       </c>
       <c r="BF12" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.745000</v>
+        <v>-229.745</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>44235.039781</v>
+        <v>44235.039780999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.287511</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.440000</v>
+        <v>1135.44</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.643000</v>
+        <v>-367.64299999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>44246.015784</v>
+        <v>44246.015784000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.290560</v>
+        <v>12.290559999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.623000</v>
+        <v>-581.62300000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>44256.888328</v>
+        <v>44256.888328000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.293580</v>
+        <v>12.29358</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="BV12" s="1">
-        <v>-810.631000</v>
+        <v>-810.63099999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>44267.650250</v>
+        <v>44267.650249999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.296570</v>
+        <v>12.296569999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1579.300000</v>
+        <v>1579.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1050.850000</v>
+        <v>-1050.8499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>44279.953111</v>
+        <v>44279.953111000003</v>
       </c>
       <c r="CD12" s="1">
         <v>12.299987</v>
       </c>
       <c r="CE12" s="1">
-        <v>1994.830000</v>
+        <v>1994.83</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1612.760000</v>
+        <v>-1612.76</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>44107.461311</v>
+        <v>44107.461310999999</v>
       </c>
       <c r="B13" s="1">
-        <v>12.252073</v>
+        <v>12.252072999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>910.150000</v>
+        <v>910.15</v>
       </c>
       <c r="D13" s="1">
-        <v>-174.399000</v>
+        <v>-174.399</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>44117.878326</v>
+        <v>44117.878325999998</v>
       </c>
       <c r="G13" s="1">
         <v>12.254966</v>
       </c>
       <c r="H13" s="1">
-        <v>923.936000</v>
+        <v>923.93600000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-149.705000</v>
+        <v>-149.70500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>44128.344903</v>
+        <v>44128.344902999997</v>
       </c>
       <c r="L13" s="1">
-        <v>12.257874</v>
+        <v>12.257873999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>943.446000</v>
+        <v>943.44600000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.091000</v>
+        <v>-111.09099999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>44138.894773</v>
@@ -3353,13 +3769,13 @@
         <v>12.260804</v>
       </c>
       <c r="R13" s="1">
-        <v>950.366000</v>
+        <v>950.36599999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.528200</v>
+        <v>-98.528199999999998</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>44149.737319</v>
@@ -3368,889 +3784,889 @@
         <v>12.263816</v>
       </c>
       <c r="W13" s="1">
-        <v>957.586000</v>
+        <v>957.58600000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.069400</v>
+        <v>-87.069400000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>44160.188521</v>
+        <v>44160.188520999996</v>
       </c>
       <c r="AA13" s="1">
         <v>12.266719</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.697000</v>
+        <v>965.697</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.327200</v>
+        <v>-79.327200000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>44170.660591</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.269628</v>
+        <v>12.269628000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.321000</v>
+        <v>971.32100000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.437500</v>
+        <v>-79.4375</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44181.175772</v>
+        <v>44181.175772000002</v>
       </c>
       <c r="AK13" s="1">
         <v>12.272549</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.654000</v>
+        <v>979.654</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.847900</v>
+        <v>-87.847899999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>44192.341679</v>
+        <v>44192.341678999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.275650</v>
+        <v>12.275650000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>989.123000</v>
+        <v>989.12300000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.138000</v>
+        <v>-103.13800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>44203.399983</v>
+        <v>44203.399983000003</v>
       </c>
       <c r="AU13" s="1">
         <v>12.278722</v>
       </c>
       <c r="AV13" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.945000</v>
+        <v>-124.94499999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>44214.186481</v>
+        <v>44214.186480999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>12.281718</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.937000</v>
+        <v>-143.93700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>44224.871299</v>
+        <v>44224.871298999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.284686</v>
+        <v>12.284686000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.744000</v>
+        <v>-229.744</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>44235.404836</v>
+        <v>44235.404836000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.287612</v>
+        <v>12.287611999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.672000</v>
+        <v>-367.67200000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>44246.412096</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.290670</v>
+        <v>12.29067</v>
       </c>
       <c r="BP13" s="1">
-        <v>1267.310000</v>
+        <v>1267.31</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.640000</v>
+        <v>-581.64</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>44257.317130</v>
+        <v>44257.317130000003</v>
       </c>
       <c r="BT13" s="1">
         <v>12.293699</v>
       </c>
       <c r="BU13" s="1">
-        <v>1415.670000</v>
+        <v>1415.67</v>
       </c>
       <c r="BV13" s="1">
-        <v>-810.604000</v>
+        <v>-810.60400000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>44268.071881</v>
+        <v>44268.071881000003</v>
       </c>
       <c r="BY13" s="1">
         <v>12.296687</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1579.310000</v>
+        <v>1579.31</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1050.730000</v>
+        <v>-1050.73</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>44280.471338</v>
+        <v>44280.471338000003</v>
       </c>
       <c r="CD13" s="1">
         <v>12.300131</v>
       </c>
       <c r="CE13" s="1">
-        <v>1994.780000</v>
+        <v>1994.78</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1611.500000</v>
+        <v>-1611.5</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>44107.804542</v>
+        <v>44107.804541999998</v>
       </c>
       <c r="B14" s="1">
-        <v>12.252168</v>
+        <v>12.252167999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>910.213000</v>
+        <v>910.21299999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-174.280000</v>
+        <v>-174.28</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>44118.220529</v>
+        <v>44118.220528999998</v>
       </c>
       <c r="G14" s="1">
         <v>12.255061</v>
       </c>
       <c r="H14" s="1">
-        <v>923.948000</v>
+        <v>923.94799999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-149.651000</v>
+        <v>-149.65100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>44129.040288</v>
+        <v>44129.040287999997</v>
       </c>
       <c r="L14" s="1">
         <v>12.258067</v>
       </c>
       <c r="M14" s="1">
-        <v>943.627000</v>
+        <v>943.62699999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-110.881000</v>
+        <v>-110.881</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>44139.592677</v>
+        <v>44139.592677000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>12.260998</v>
+        <v>12.260998000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>950.368000</v>
+        <v>950.36800000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.550000</v>
+        <v>-98.55</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>44150.083557</v>
+        <v>44150.083556999998</v>
       </c>
       <c r="V14" s="1">
-        <v>12.263912</v>
+        <v>12.263911999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>957.495000</v>
+        <v>957.495</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.990400</v>
+        <v>-86.990399999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>44160.536711</v>
+        <v>44160.536711000001</v>
       </c>
       <c r="AA14" s="1">
         <v>12.266816</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.703000</v>
+        <v>965.70299999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.334800</v>
+        <v>-79.334800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>44171.003787</v>
+        <v>44171.003787000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.269723</v>
+        <v>12.269723000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.243000</v>
+        <v>971.24300000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.465000</v>
+        <v>-79.465000000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44181.841372</v>
+        <v>44181.841372000003</v>
       </c>
       <c r="AK14" s="1">
         <v>12.272734</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.667000</v>
+        <v>979.66700000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.839000</v>
+        <v>-87.838999999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>44192.729053</v>
+        <v>44192.729053000003</v>
       </c>
       <c r="AP14" s="1">
         <v>12.275758</v>
       </c>
       <c r="AQ14" s="1">
-        <v>989.104000</v>
+        <v>989.10400000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>44203.815662</v>
+        <v>44203.815662000001</v>
       </c>
       <c r="AU14" s="1">
         <v>12.278838</v>
       </c>
       <c r="AV14" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.984000</v>
+        <v>-124.98399999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>44214.561489</v>
       </c>
       <c r="AZ14" s="1">
-        <v>12.281823</v>
+        <v>12.281822999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.925000</v>
+        <v>-143.92500000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>44225.253716</v>
+        <v>44225.253715999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.284793</v>
+        <v>12.284793000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.732000</v>
+        <v>-229.732</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>44235.777367</v>
+        <v>44235.777367000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.287716</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.430000</v>
+        <v>1135.43</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.660000</v>
+        <v>-367.66</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>44246.834680</v>
+        <v>44246.83468</v>
       </c>
       <c r="BO14" s="1">
         <v>12.290787</v>
       </c>
       <c r="BP14" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.615000</v>
+        <v>-581.61500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>44257.727322</v>
+        <v>44257.727321999999</v>
       </c>
       <c r="BT14" s="1">
         <v>12.293813</v>
       </c>
       <c r="BU14" s="1">
-        <v>1415.650000</v>
+        <v>1415.65</v>
       </c>
       <c r="BV14" s="1">
-        <v>-810.614000</v>
+        <v>-810.61400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>44268.492953</v>
+        <v>44268.492953000001</v>
       </c>
       <c r="BY14" s="1">
         <v>12.296804</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1579.410000</v>
+        <v>1579.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1050.920000</v>
+        <v>-1050.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>44280.991145</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.300275</v>
+        <v>12.300274999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1993.300000</v>
+        <v>1993.3</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1611.450000</v>
+        <v>-1611.45</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>44108.146323</v>
+        <v>44108.146323000001</v>
       </c>
       <c r="B15" s="1">
-        <v>12.252263</v>
+        <v>12.252262999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>910.370000</v>
+        <v>910.37</v>
       </c>
       <c r="D15" s="1">
-        <v>-174.322000</v>
+        <v>-174.322</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>44118.911982</v>
+        <v>44118.911981999998</v>
       </c>
       <c r="G15" s="1">
         <v>12.255253</v>
       </c>
       <c r="H15" s="1">
-        <v>923.755000</v>
+        <v>923.755</v>
       </c>
       <c r="I15" s="1">
-        <v>-149.475000</v>
+        <v>-149.47499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>44129.382534</v>
+        <v>44129.382533999997</v>
       </c>
       <c r="L15" s="1">
         <v>12.258162</v>
       </c>
       <c r="M15" s="1">
-        <v>943.520000</v>
+        <v>943.52</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.036000</v>
+        <v>-111.036</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>44139.941331</v>
+        <v>44139.941331000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.261095</v>
+        <v>12.261094999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>950.372000</v>
+        <v>950.37199999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.502300</v>
+        <v>-98.502300000000005</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>44150.423780</v>
+        <v>44150.423779999997</v>
       </c>
       <c r="V15" s="1">
-        <v>12.264007</v>
+        <v>12.264006999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>957.528000</v>
+        <v>957.52800000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.961500</v>
+        <v>-86.961500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>44161.193415</v>
+        <v>44161.193415000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.266998</v>
+        <v>12.266997999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.729000</v>
+        <v>965.72900000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.284800</v>
+        <v>-79.284800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>44171.663502</v>
+        <v>44171.663502000003</v>
       </c>
       <c r="AF15" s="1">
         <v>12.269907</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.214000</v>
+        <v>971.21400000000006</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.528700</v>
+        <v>-79.528700000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44182.218332</v>
+        <v>44182.218331999997</v>
       </c>
       <c r="AK15" s="1">
         <v>12.272838</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.677000</v>
+        <v>979.67700000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.863300</v>
+        <v>-87.863299999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>44193.090140</v>
+        <v>44193.09014</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.275858</v>
+        <v>12.275857999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>989.099000</v>
+        <v>989.09900000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>44204.178733</v>
+        <v>44204.178733000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.278939</v>
+        <v>12.278938999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.963000</v>
+        <v>-124.96299999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>44214.940896</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12.281928</v>
+        <v>12.281928000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.350000</v>
+        <v>1010.35</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.913000</v>
+        <v>-143.91300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>44225.683251</v>
+        <v>44225.683251000002</v>
       </c>
       <c r="BE15" s="1">
         <v>12.284912</v>
       </c>
       <c r="BF15" s="1">
-        <v>1055.790000</v>
+        <v>1055.79</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.750000</v>
+        <v>-229.75</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>44236.202404</v>
+        <v>44236.202404000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.287834</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.664000</v>
+        <v>-367.66399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>44247.228502</v>
+        <v>44247.228501999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.290897</v>
+        <v>12.290896999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1267.280000</v>
+        <v>1267.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.629000</v>
+        <v>-581.62900000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>44258.158838</v>
+        <v>44258.158838000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.293933</v>
+        <v>12.293933000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1415.660000</v>
+        <v>1415.66</v>
       </c>
       <c r="BV15" s="1">
-        <v>-810.573000</v>
+        <v>-810.57299999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>44268.949284</v>
+        <v>44268.949284000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.296930</v>
+        <v>12.29693</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1579.180000</v>
+        <v>1579.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1050.770000</v>
+        <v>-1050.77</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>44281.507514</v>
+        <v>44281.507513999997</v>
       </c>
       <c r="CD15" s="1">
         <v>12.300419</v>
       </c>
       <c r="CE15" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1611.310000</v>
+        <v>-1611.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>44108.827293</v>
+        <v>44108.827293000002</v>
       </c>
       <c r="B16" s="1">
         <v>12.252452</v>
       </c>
       <c r="C16" s="1">
-        <v>910.376000</v>
+        <v>910.37599999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-174.350000</v>
+        <v>-174.35</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>44119.254686</v>
       </c>
       <c r="G16" s="1">
-        <v>12.255349</v>
+        <v>12.255349000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>924.018000</v>
+        <v>924.01800000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-149.308000</v>
+        <v>-149.30799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>44129.731712</v>
+        <v>44129.731712000001</v>
       </c>
       <c r="L16" s="1">
-        <v>12.258259</v>
+        <v>12.258259000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>943.677000</v>
+        <v>943.67700000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-110.888000</v>
+        <v>-110.88800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>44140.290018</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.261192</v>
+        <v>12.261191999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>950.337000</v>
+        <v>950.33699999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.468700</v>
+        <v>-98.468699999999998</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>44151.084452</v>
+        <v>44151.084452000003</v>
       </c>
       <c r="V16" s="1">
-        <v>12.264190</v>
+        <v>12.264189999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>957.370000</v>
+        <v>957.37</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.967200</v>
+        <v>-86.967200000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>44161.580790</v>
+        <v>44161.58079</v>
       </c>
       <c r="AA16" s="1">
         <v>12.267106</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.735000</v>
+        <v>965.73500000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.255200</v>
+        <v>-79.255200000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>44172.037944</v>
+        <v>44172.037944000003</v>
       </c>
       <c r="AF16" s="1">
         <v>12.270011</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.206000</v>
+        <v>971.20600000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.523200</v>
+        <v>-79.523200000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44182.567514</v>
+        <v>44182.567514000002</v>
       </c>
       <c r="AK16" s="1">
         <v>12.272935</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.669000</v>
+        <v>979.66899999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.824200</v>
+        <v>-87.824200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>44193.454204</v>
+        <v>44193.454204000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>12.275960</v>
+        <v>12.27596</v>
       </c>
       <c r="AQ16" s="1">
-        <v>989.077000</v>
+        <v>989.077</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>44204.545774</v>
+        <v>44204.545773999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.279040</v>
+        <v>12.27904</v>
       </c>
       <c r="AV16" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>44215.362495</v>
+        <v>44215.362495000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.282045</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.907000</v>
+        <v>-143.90700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>44225.974474</v>
+        <v>44225.974474000002</v>
       </c>
       <c r="BE16" s="1">
         <v>12.284993</v>
       </c>
       <c r="BF16" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>44236.530755</v>
@@ -4259,43 +4675,43 @@
         <v>12.287925</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.450000</v>
+        <v>1135.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.689000</v>
+        <v>-367.68900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>44247.649574</v>
+        <v>44247.649574000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.291014</v>
+        <v>12.291014000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1267.310000</v>
+        <v>1267.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.625000</v>
+        <v>-581.625</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>44258.586360</v>
+        <v>44258.586360000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.294052</v>
+        <v>12.294052000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1415.710000</v>
+        <v>1415.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-810.631000</v>
+        <v>-810.63099999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>44269.396665</v>
@@ -4304,288 +4720,288 @@
         <v>12.297055</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1579.390000</v>
+        <v>1579.39</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1050.680000</v>
+        <v>-1050.68</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>44282.059528</v>
+        <v>44282.059527999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>12.300572</v>
+        <v>12.300572000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1994.370000</v>
+        <v>1994.37</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1611.250000</v>
+        <v>-1611.25</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>44109.171548</v>
+        <v>44109.171547999998</v>
       </c>
       <c r="B17" s="1">
-        <v>12.252548</v>
+        <v>12.252548000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>910.495000</v>
+        <v>910.495</v>
       </c>
       <c r="D17" s="1">
-        <v>-174.396000</v>
+        <v>-174.39599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>44119.599903</v>
+        <v>44119.599903000002</v>
       </c>
       <c r="G17" s="1">
-        <v>12.255444</v>
+        <v>12.255444000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>923.756000</v>
+        <v>923.75599999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-149.317000</v>
+        <v>-149.31700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>44130.389873</v>
       </c>
       <c r="L17" s="1">
-        <v>12.258442</v>
+        <v>12.258442000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>943.553000</v>
+        <v>943.553</v>
       </c>
       <c r="N17" s="1">
-        <v>-110.843000</v>
+        <v>-110.843</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>44140.954162</v>
+        <v>44140.954162000002</v>
       </c>
       <c r="Q17" s="1">
         <v>12.261376</v>
       </c>
       <c r="R17" s="1">
-        <v>950.389000</v>
+        <v>950.38900000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.372900</v>
+        <v>-98.372900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>44151.455459</v>
+        <v>44151.455458999997</v>
       </c>
       <c r="V17" s="1">
         <v>12.264293</v>
       </c>
       <c r="W17" s="1">
-        <v>957.492000</v>
+        <v>957.49199999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.938900</v>
+        <v>-86.938900000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>44161.929013</v>
+        <v>44161.929013000001</v>
       </c>
       <c r="AA17" s="1">
         <v>12.267203</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.784000</v>
+        <v>965.78399999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.319600</v>
+        <v>-79.319599999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>44172.384152</v>
+        <v>44172.384151999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>12.270107</v>
+        <v>12.270106999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.174000</v>
+        <v>971.17399999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.510900</v>
+        <v>-79.510900000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>44182.914220</v>
+        <v>44182.914219999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.273032</v>
+        <v>12.273032000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.653000</v>
+        <v>979.65300000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.829300</v>
+        <v>-87.829300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>44193.871376</v>
+        <v>44193.871376000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>12.276075</v>
+        <v>12.276075000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>989.101000</v>
+        <v>989.101</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.129000</v>
+        <v>-103.129</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>44204.969854</v>
+        <v>44204.969854000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.279158</v>
+        <v>12.279158000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.963000</v>
+        <v>-124.96299999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>44215.657119</v>
+        <v>44215.657119000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.282127</v>
+        <v>12.282126999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.921000</v>
+        <v>-143.92099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>44226.335488</v>
+        <v>44226.335487999997</v>
       </c>
       <c r="BE17" s="1">
         <v>12.285093</v>
       </c>
       <c r="BF17" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>44236.928051</v>
+        <v>44236.928051000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.288036</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.659000</v>
+        <v>-367.65899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>44248.048852</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.291125</v>
+        <v>12.291124999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.632000</v>
+        <v>-581.63199999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>44259.011925</v>
+        <v>44259.011924999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.294170</v>
+        <v>12.294169999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1415.590000</v>
+        <v>1415.59</v>
       </c>
       <c r="BV17" s="1">
-        <v>-810.617000</v>
+        <v>-810.61699999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>44269.829207</v>
+        <v>44269.829207000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.297175</v>
+        <v>12.297174999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1579.290000</v>
+        <v>1579.29</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1050.780000</v>
+        <v>-1050.78</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>44282.589752</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.300719</v>
+        <v>12.300719000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1993.350000</v>
+        <v>1993.35</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1612.260000</v>
+        <v>-1612.26</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>44109.825738</v>
       </c>
@@ -4593,1056 +5009,1056 @@
         <v>12.252729</v>
       </c>
       <c r="C18" s="1">
-        <v>910.210000</v>
+        <v>910.21</v>
       </c>
       <c r="D18" s="1">
-        <v>-174.525000</v>
+        <v>-174.52500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>44120.246685</v>
+        <v>44120.246684999998</v>
       </c>
       <c r="G18" s="1">
-        <v>12.255624</v>
+        <v>12.255623999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>923.445000</v>
+        <v>923.44500000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-149.414000</v>
+        <v>-149.41399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>44130.769311</v>
+        <v>44130.769310999996</v>
       </c>
       <c r="L18" s="1">
         <v>12.258547</v>
       </c>
       <c r="M18" s="1">
-        <v>943.690000</v>
+        <v>943.69</v>
       </c>
       <c r="N18" s="1">
-        <v>-110.859000</v>
+        <v>-110.85899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>44141.357906</v>
+        <v>44141.357905999997</v>
       </c>
       <c r="Q18" s="1">
         <v>12.261488</v>
       </c>
       <c r="R18" s="1">
-        <v>950.386000</v>
+        <v>950.38599999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.445600</v>
+        <v>-98.445599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>44151.798692</v>
+        <v>44151.798691999997</v>
       </c>
       <c r="V18" s="1">
         <v>12.264389</v>
       </c>
       <c r="W18" s="1">
-        <v>957.458000</v>
+        <v>957.45799999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.935300</v>
+        <v>-86.935299999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>44162.281142</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.267300</v>
+        <v>12.267300000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.659000</v>
+        <v>965.65899999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.281000</v>
+        <v>-79.281000000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>44172.725896</v>
+        <v>44172.725896000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.270202</v>
+        <v>12.270201999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.225000</v>
+        <v>971.22500000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.530400</v>
+        <v>-79.5304</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44183.335361</v>
+        <v>44183.335360999998</v>
       </c>
       <c r="AK18" s="1">
         <v>12.273149</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.642000</v>
+        <v>979.64200000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.834900</v>
+        <v>-87.834900000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>44194.168939</v>
+        <v>44194.168939000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.276158</v>
+        <v>12.276158000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>989.104000</v>
+        <v>989.10400000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>44205.274398</v>
+        <v>44205.274398000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.279243</v>
+        <v>12.279242999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.961000</v>
+        <v>-124.961</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>44216.015728</v>
+        <v>44216.015727999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.282227</v>
+        <v>12.282227000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.902000</v>
+        <v>-143.90199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>44226.696080</v>
+        <v>44226.696080000002</v>
       </c>
       <c r="BE18" s="1">
         <v>12.285193</v>
       </c>
       <c r="BF18" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.733000</v>
+        <v>-229.733</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>44237.305012</v>
+        <v>44237.305011999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.288140</v>
+        <v>12.28814</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.656000</v>
+        <v>-367.65600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>44248.470452</v>
+        <v>44248.470452000001</v>
       </c>
       <c r="BO18" s="1">
         <v>12.291242</v>
       </c>
       <c r="BP18" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.655000</v>
+        <v>-581.65499999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>44259.428565</v>
+        <v>44259.428565000002</v>
       </c>
       <c r="BT18" s="1">
         <v>12.294286</v>
       </c>
       <c r="BU18" s="1">
-        <v>1415.660000</v>
+        <v>1415.66</v>
       </c>
       <c r="BV18" s="1">
-        <v>-810.658000</v>
+        <v>-810.65800000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>44270.251271</v>
+        <v>44270.251271000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.297292</v>
+        <v>12.297292000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1579.360000</v>
+        <v>1579.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1050.890000</v>
+        <v>-1050.8900000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>44283.107605</v>
+        <v>44283.107604999997</v>
       </c>
       <c r="CD18" s="1">
         <v>12.300863</v>
       </c>
       <c r="CE18" s="1">
-        <v>1994.520000</v>
+        <v>1994.52</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1613.230000</v>
+        <v>-1613.23</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>44110.192780</v>
+        <v>44110.192779999998</v>
       </c>
       <c r="B19" s="1">
         <v>12.252831</v>
       </c>
       <c r="C19" s="1">
-        <v>910.293000</v>
+        <v>910.29300000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-174.331000</v>
+        <v>-174.33099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>44120.632572</v>
+        <v>44120.632572000002</v>
       </c>
       <c r="G19" s="1">
-        <v>12.255731</v>
+        <v>12.255731000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>923.838000</v>
+        <v>923.83799999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-149.862000</v>
+        <v>-149.86199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>44131.115518</v>
+        <v>44131.115517999999</v>
       </c>
       <c r="L19" s="1">
-        <v>12.258643</v>
+        <v>12.258642999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>943.591000</v>
+        <v>943.59100000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-110.925000</v>
+        <v>-110.925</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>44141.685276</v>
+        <v>44141.685275999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.261579</v>
+        <v>12.261578999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>950.393000</v>
+        <v>950.39300000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.428000</v>
+        <v>-98.427999999999997</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>44152.143907</v>
+        <v>44152.143906999998</v>
       </c>
       <c r="V19" s="1">
-        <v>12.264484</v>
+        <v>12.264483999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>957.594000</v>
+        <v>957.59400000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.959000</v>
+        <v>-86.959000000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>44162.700295</v>
+        <v>44162.700295000002</v>
       </c>
       <c r="AA19" s="1">
         <v>12.267417</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.662000</v>
+        <v>965.66200000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.365900</v>
+        <v>-79.365899999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>44173.149479</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.270319</v>
+        <v>12.270319000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.155000</v>
+        <v>971.15499999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.520900</v>
+        <v>-79.520899999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44183.623993</v>
+        <v>44183.623993000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.273229</v>
+        <v>12.273229000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.648000</v>
+        <v>979.64800000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.865300</v>
+        <v>-87.865300000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>44194.533995</v>
+        <v>44194.533994999998</v>
       </c>
       <c r="AP19" s="1">
         <v>12.276259</v>
       </c>
       <c r="AQ19" s="1">
-        <v>989.097000</v>
+        <v>989.09699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>44205.636973</v>
+        <v>44205.636973000001</v>
       </c>
       <c r="AU19" s="1">
         <v>12.279344</v>
       </c>
       <c r="AV19" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.940000</v>
+        <v>-124.94</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>44216.375330</v>
+        <v>44216.375330000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.282326</v>
+        <v>12.282325999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.896000</v>
+        <v>-143.89599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>44227.418255</v>
+        <v>44227.418254999997</v>
       </c>
       <c r="BE19" s="1">
         <v>12.285394</v>
       </c>
       <c r="BF19" s="1">
-        <v>1055.830000</v>
+        <v>1055.83</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.741000</v>
+        <v>-229.74100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>44238.053505</v>
+        <v>44238.053505000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.288348</v>
+        <v>12.288347999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.450000</v>
+        <v>1135.45</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.640000</v>
+        <v>-367.64</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>44248.867783</v>
+        <v>44248.867783000002</v>
       </c>
       <c r="BO19" s="1">
         <v>12.291352</v>
       </c>
       <c r="BP19" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.666000</v>
+        <v>-581.66600000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>44259.859589</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.294405</v>
+        <v>12.294404999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="BV19" s="1">
-        <v>-810.617000</v>
+        <v>-810.61699999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>44270.674854</v>
+        <v>44270.674853999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.297410</v>
+        <v>12.297409999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1579.320000</v>
+        <v>1579.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1050.750000</v>
+        <v>-1050.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>44283.943829</v>
+        <v>44283.943829000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.301096</v>
+        <v>12.301095999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1995.320000</v>
+        <v>1995.32</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1612.000000</v>
+        <v>-1612</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>44110.543449</v>
+        <v>44110.543448999997</v>
       </c>
       <c r="B20" s="1">
         <v>12.252929</v>
       </c>
       <c r="C20" s="1">
-        <v>910.380000</v>
+        <v>910.38</v>
       </c>
       <c r="D20" s="1">
-        <v>-174.347000</v>
+        <v>-174.34700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>44120.977324</v>
+        <v>44120.977323999999</v>
       </c>
       <c r="G20" s="1">
         <v>12.255827</v>
       </c>
       <c r="H20" s="1">
-        <v>923.877000</v>
+        <v>923.87699999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-149.415000</v>
+        <v>-149.41499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>44131.459774</v>
+        <v>44131.459774000003</v>
       </c>
       <c r="L20" s="1">
         <v>12.258739</v>
       </c>
       <c r="M20" s="1">
-        <v>943.646000</v>
+        <v>943.64599999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.009000</v>
+        <v>-111.009</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>44142.116288</v>
+        <v>44142.116287999997</v>
       </c>
       <c r="Q20" s="1">
         <v>12.261699</v>
       </c>
       <c r="R20" s="1">
-        <v>950.423000</v>
+        <v>950.423</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.454600</v>
+        <v>-98.454599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>44152.570466</v>
+        <v>44152.570465999997</v>
       </c>
       <c r="V20" s="1">
-        <v>12.264603</v>
+        <v>12.264602999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>957.456000</v>
+        <v>957.45600000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.977600</v>
+        <v>-86.977599999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>44162.978516</v>
+        <v>44162.978516000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.267494</v>
+        <v>12.267493999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.759000</v>
+        <v>965.75900000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.339100</v>
+        <v>-79.339100000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>44173.425255</v>
+        <v>44173.425255000002</v>
       </c>
       <c r="AF20" s="1">
         <v>12.270396</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.196000</v>
+        <v>971.19600000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.534800</v>
+        <v>-79.534800000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44183.973674</v>
+        <v>44183.973674000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.273326</v>
+        <v>12.273326000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.620000</v>
+        <v>979.62</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.878000</v>
+        <v>-87.878</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>44194.894092</v>
+        <v>44194.894092000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.276359</v>
+        <v>12.276358999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>989.103000</v>
+        <v>989.10299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.113000</v>
+        <v>-103.113</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>44206.002988</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.279445</v>
+        <v>12.279445000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.979000</v>
+        <v>-124.979</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>44217.091918</v>
+        <v>44217.091917999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.282526</v>
+        <v>12.282526000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.912000</v>
+        <v>-143.91200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>44227.803648</v>
+        <v>44227.803648000001</v>
       </c>
       <c r="BE20" s="1">
         <v>12.285501</v>
       </c>
       <c r="BF20" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.746000</v>
+        <v>-229.74600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>44238.429970</v>
+        <v>44238.429969999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.288453</v>
+        <v>12.288453000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.410000</v>
+        <v>1135.4100000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.681000</v>
+        <v>-367.68099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>44249.285910</v>
+        <v>44249.285909999999</v>
       </c>
       <c r="BO20" s="1">
         <v>12.291468</v>
       </c>
       <c r="BP20" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.621000</v>
+        <v>-581.62099999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>44260.585732</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.294607</v>
+        <v>12.294606999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.610000</v>
+        <v>1415.61</v>
       </c>
       <c r="BV20" s="1">
-        <v>-810.665000</v>
+        <v>-810.66499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>44271.418853</v>
+        <v>44271.418853000003</v>
       </c>
       <c r="BY20" s="1">
         <v>12.297616</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1579.340000</v>
+        <v>1579.34</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1050.620000</v>
+        <v>-1050.6199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>44284.174964</v>
+        <v>44284.174963999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.301160</v>
+        <v>12.301159999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1992.750000</v>
+        <v>1992.75</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1612.130000</v>
+        <v>-1612.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>44110.881227</v>
+        <v>44110.881226999998</v>
       </c>
       <c r="B21" s="1">
-        <v>12.253023</v>
+        <v>12.253023000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>910.230000</v>
+        <v>910.23</v>
       </c>
       <c r="D21" s="1">
-        <v>-174.455000</v>
+        <v>-174.45500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>44121.324492</v>
       </c>
       <c r="G21" s="1">
-        <v>12.255923</v>
+        <v>12.255922999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>923.310000</v>
+        <v>923.31</v>
       </c>
       <c r="I21" s="1">
-        <v>-149.939000</v>
+        <v>-149.93899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>44131.876413</v>
+        <v>44131.876412999998</v>
       </c>
       <c r="L21" s="1">
-        <v>12.258855</v>
+        <v>12.258855000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>943.702000</v>
+        <v>943.702</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.009000</v>
+        <v>-111.009</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>44142.395573</v>
+        <v>44142.395573000002</v>
       </c>
       <c r="Q21" s="1">
         <v>12.261777</v>
       </c>
       <c r="R21" s="1">
-        <v>950.340000</v>
+        <v>950.34</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.485300</v>
+        <v>-98.485299999999995</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>44152.850742</v>
+        <v>44152.850742000002</v>
       </c>
       <c r="V21" s="1">
         <v>12.264681</v>
       </c>
       <c r="W21" s="1">
-        <v>957.563000</v>
+        <v>957.56299999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.012600</v>
+        <v>-87.012600000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>44163.326249</v>
+        <v>44163.326248999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.267591</v>
+        <v>12.267590999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.728000</v>
+        <v>965.72799999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.358200</v>
+        <v>-79.358199999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>44173.814614</v>
+        <v>44173.814614000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.270504</v>
+        <v>12.270504000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.233000</v>
+        <v>971.23299999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.510800</v>
+        <v>-79.510800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44184.321368</v>
+        <v>44184.321367999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.273423</v>
+        <v>12.273422999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.618000</v>
+        <v>979.61800000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.870900</v>
+        <v>-87.870900000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>44195.613289</v>
+        <v>44195.613289000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>12.276559</v>
+        <v>12.276559000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>989.093000</v>
+        <v>989.09299999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.120000</v>
+        <v>-103.12</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>44206.741070</v>
+        <v>44206.741069999996</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.279650</v>
+        <v>12.27965</v>
       </c>
       <c r="AV21" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>44217.450189</v>
+        <v>44217.450189000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>12.282625</v>
+        <v>12.282624999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.944000</v>
+        <v>-143.94399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>44228.186063</v>
+        <v>44228.186063000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.285607</v>
+        <v>12.285607000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.733000</v>
+        <v>-229.733</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>44238.805904</v>
+        <v>44238.805904000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.288557</v>
+        <v>12.288557000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.440000</v>
+        <v>1135.44</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.647000</v>
+        <v>-367.64699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>44249.994162</v>
+        <v>44249.994162000003</v>
       </c>
       <c r="BO21" s="1">
         <v>12.291665</v>
       </c>
       <c r="BP21" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.671000</v>
+        <v>-581.67100000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>44260.700812</v>
+        <v>44260.700812000003</v>
       </c>
       <c r="BT21" s="1">
         <v>12.294639</v>
       </c>
       <c r="BU21" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="BV21" s="1">
-        <v>-810.725000</v>
+        <v>-810.72500000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>44271.538885</v>
+        <v>44271.538885000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.297650</v>
+        <v>12.297650000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1579.350000</v>
+        <v>1579.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1050.620000</v>
+        <v>-1050.6199999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>44284.707699</v>
+        <v>44284.707698999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.301308</v>
+        <v>12.301308000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1995.040000</v>
+        <v>1995.04</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1612.660000</v>
+        <v>-1612.66</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>44111.310297</v>
+        <v>44111.310297000004</v>
       </c>
       <c r="B22" s="1">
         <v>12.253142</v>
       </c>
       <c r="C22" s="1">
-        <v>910.082000</v>
+        <v>910.08199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-174.309000</v>
+        <v>-174.309</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>44121.742620</v>
+        <v>44121.742619999997</v>
       </c>
       <c r="G22" s="1">
-        <v>12.256040</v>
+        <v>12.25604</v>
       </c>
       <c r="H22" s="1">
-        <v>923.428000</v>
+        <v>923.428</v>
       </c>
       <c r="I22" s="1">
-        <v>-149.505000</v>
+        <v>-149.505</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>44132.171037</v>
@@ -5651,420 +6067,420 @@
         <v>12.258936</v>
       </c>
       <c r="M22" s="1">
-        <v>943.630000</v>
+        <v>943.63</v>
       </c>
       <c r="N22" s="1">
-        <v>-110.857000</v>
+        <v>-110.857</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>44142.743729</v>
+        <v>44142.743729000002</v>
       </c>
       <c r="Q22" s="1">
         <v>12.261873</v>
       </c>
       <c r="R22" s="1">
-        <v>950.331000</v>
+        <v>950.33100000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.465500</v>
+        <v>-98.465500000000006</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>44153.194931</v>
+        <v>44153.194930999998</v>
       </c>
       <c r="V22" s="1">
-        <v>12.264776</v>
+        <v>12.264775999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>957.431000</v>
+        <v>957.43100000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.022200</v>
+        <v>-87.022199999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>44163.674935</v>
+        <v>44163.674935000003</v>
       </c>
       <c r="AA22" s="1">
         <v>12.267687</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.707000</v>
+        <v>965.70699999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.291200</v>
+        <v>-79.291200000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>44174.403365</v>
+        <v>44174.403364999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.270668</v>
+        <v>12.270668000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.164000</v>
+        <v>971.16399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.527700</v>
+        <v>-79.527699999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>44185.017257</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.273616</v>
+        <v>12.273616000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.639000</v>
+        <v>979.63900000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.857600</v>
+        <v>-87.857600000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>44195.973419</v>
+        <v>44195.973419000002</v>
       </c>
       <c r="AP22" s="1">
         <v>12.276659</v>
       </c>
       <c r="AQ22" s="1">
-        <v>989.091000</v>
+        <v>989.09100000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>44207.116506</v>
+        <v>44207.116505999998</v>
       </c>
       <c r="AU22" s="1">
         <v>12.279755</v>
       </c>
       <c r="AV22" s="1">
-        <v>1000.620000</v>
+        <v>1000.62</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.974000</v>
+        <v>-124.974</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>44217.810252</v>
+        <v>44217.810252000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.282725</v>
+        <v>12.282724999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.921000</v>
+        <v>-143.92099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>44228.852222</v>
+        <v>44228.852222000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.285792</v>
+        <v>12.285792000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.731000</v>
+        <v>-229.73099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>44239.565279</v>
+        <v>44239.565279000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.288768</v>
+        <v>12.288767999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.653000</v>
+        <v>-367.65300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>44250.121633</v>
+        <v>44250.121633000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.291700</v>
+        <v>12.291700000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1267.270000</v>
+        <v>1267.27</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.634000</v>
+        <v>-581.63400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>44261.141747</v>
+        <v>44261.141747000001</v>
       </c>
       <c r="BT22" s="1">
         <v>12.294762</v>
       </c>
       <c r="BU22" s="1">
-        <v>1415.580000</v>
+        <v>1415.58</v>
       </c>
       <c r="BV22" s="1">
-        <v>-810.688000</v>
+        <v>-810.68799999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>44271.953725</v>
+        <v>44271.953724999999</v>
       </c>
       <c r="BY22" s="1">
         <v>12.297765</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1579.310000</v>
+        <v>1579.31</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1050.810000</v>
+        <v>-1050.81</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>44285.248803</v>
+        <v>44285.248803000002</v>
       </c>
       <c r="CD22" s="1">
         <v>12.301458</v>
       </c>
       <c r="CE22" s="1">
-        <v>1993.980000</v>
+        <v>1993.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1611.560000</v>
+        <v>-1611.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>44111.581578</v>
+        <v>44111.581577999998</v>
       </c>
       <c r="B23" s="1">
-        <v>12.253217</v>
+        <v>12.253216999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>910.413000</v>
+        <v>910.41300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-174.223000</v>
+        <v>-174.22300000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>44122.019915</v>
+        <v>44122.019914999997</v>
       </c>
       <c r="G23" s="1">
         <v>12.256117</v>
       </c>
       <c r="H23" s="1">
-        <v>923.731000</v>
+        <v>923.73099999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-149.284000</v>
+        <v>-149.28399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>44132.518702</v>
+        <v>44132.518702000001</v>
       </c>
       <c r="L23" s="1">
-        <v>12.259033</v>
+        <v>12.259033000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>943.604000</v>
+        <v>943.60400000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.112000</v>
+        <v>-111.11199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>44143.092416</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.261970</v>
+        <v>12.26197</v>
       </c>
       <c r="R23" s="1">
-        <v>950.420000</v>
+        <v>950.42</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.366300</v>
+        <v>-98.366299999999995</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>44153.539649</v>
+        <v>44153.539648999998</v>
       </c>
       <c r="V23" s="1">
         <v>12.264872</v>
       </c>
       <c r="W23" s="1">
-        <v>957.565000</v>
+        <v>957.56500000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.035700</v>
+        <v>-87.035700000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>44164.371319</v>
+        <v>44164.371318999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.267881</v>
+        <v>12.267880999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.745000</v>
+        <v>965.745</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.276000</v>
+        <v>-79.275999999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>44174.815578</v>
+        <v>44174.815578000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.270782</v>
+        <v>12.270782000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.310000</v>
+        <v>971.31</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.334600</v>
+        <v>-79.334599999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>44185.365942</v>
+        <v>44185.365941999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.273713</v>
+        <v>12.273713000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.649000</v>
+        <v>979.649</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.864400</v>
+        <v>-87.864400000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>44196.332984</v>
+        <v>44196.332984000001</v>
       </c>
       <c r="AP23" s="1">
         <v>12.276759</v>
       </c>
       <c r="AQ23" s="1">
-        <v>989.094000</v>
+        <v>989.09400000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.115000</v>
+        <v>-103.11499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>44207.803500</v>
+        <v>44207.803500000002</v>
       </c>
       <c r="AU23" s="1">
         <v>12.279945</v>
       </c>
       <c r="AV23" s="1">
-        <v>1000.640000</v>
+        <v>1000.64</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.979000</v>
+        <v>-124.979</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>44218.486334</v>
+        <v>44218.486334000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.282913</v>
+        <v>12.282913000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.910000</v>
+        <v>-143.91</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>44229.269326</v>
+        <v>44229.269326000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.285908</v>
+        <v>12.285907999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1055.800000</v>
+        <v>1055.8</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.730000</v>
+        <v>-229.73</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>44239.929839</v>
+        <v>44239.929838999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>12.288869</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.420000</v>
+        <v>1135.42</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.662000</v>
+        <v>-367.66199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>44250.532818</v>
@@ -6073,28 +6489,28 @@
         <v>12.291815</v>
       </c>
       <c r="BP23" s="1">
-        <v>1267.240000</v>
+        <v>1267.24</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.644000</v>
+        <v>-581.64400000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>44261.565858</v>
+        <v>44261.565858000002</v>
       </c>
       <c r="BT23" s="1">
         <v>12.294879</v>
       </c>
       <c r="BU23" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="BV23" s="1">
-        <v>-810.707000</v>
+        <v>-810.70699999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>44272.372164</v>
@@ -6103,165 +6519,165 @@
         <v>12.297881</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1579.250000</v>
+        <v>1579.25</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1050.800000</v>
+        <v>-1050.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>44285.788978</v>
+        <v>44285.788977999997</v>
       </c>
       <c r="CD23" s="1">
         <v>12.301608</v>
       </c>
       <c r="CE23" s="1">
-        <v>1994.030000</v>
+        <v>1994.03</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1613.160000</v>
+        <v>-1613.16</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>44111.926793</v>
+        <v>44111.926792999999</v>
       </c>
       <c r="B24" s="1">
         <v>12.253313</v>
       </c>
       <c r="C24" s="1">
-        <v>910.189000</v>
+        <v>910.18899999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-174.192000</v>
+        <v>-174.19200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>44122.362618</v>
+        <v>44122.362617999999</v>
       </c>
       <c r="G24" s="1">
         <v>12.256212</v>
       </c>
       <c r="H24" s="1">
-        <v>923.691000</v>
+        <v>923.69100000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-149.532000</v>
+        <v>-149.53200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>44132.860941</v>
+        <v>44132.860940999999</v>
       </c>
       <c r="L24" s="1">
         <v>12.259128</v>
       </c>
       <c r="M24" s="1">
-        <v>943.635000</v>
+        <v>943.63499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-110.948000</v>
+        <v>-110.94799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>44143.789791</v>
+        <v>44143.789791000003</v>
       </c>
       <c r="Q24" s="1">
         <v>12.262164</v>
       </c>
       <c r="R24" s="1">
-        <v>950.385000</v>
+        <v>950.38499999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.368700</v>
+        <v>-98.368700000000004</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>44154.227600</v>
+        <v>44154.227599999998</v>
       </c>
       <c r="V24" s="1">
         <v>12.265063</v>
       </c>
       <c r="W24" s="1">
-        <v>957.490000</v>
+        <v>957.49</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.060100</v>
+        <v>-87.060100000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>44164.721458</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.267978</v>
+        <v>12.267977999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.689000</v>
+        <v>965.68899999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.322800</v>
+        <v>-79.322800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>44175.163270</v>
+        <v>44175.163269999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.270879</v>
+        <v>12.270879000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.248000</v>
+        <v>971.24800000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.637800</v>
+        <v>-79.637799999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>44185.717112</v>
+        <v>44185.717111999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.273810</v>
+        <v>12.273809999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.632000</v>
+        <v>979.63199999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.851400</v>
+        <v>-87.851399999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>44197.020969</v>
+        <v>44197.020968999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.276950</v>
+        <v>12.276949999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>989.093000</v>
+        <v>989.09299999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.104000</v>
+        <v>-103.104</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>44208.210218</v>
@@ -6270,240 +6686,240 @@
         <v>12.280058</v>
       </c>
       <c r="AV24" s="1">
-        <v>1000.650000</v>
+        <v>1000.65</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.955000</v>
+        <v>-124.955</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>44218.886075</v>
+        <v>44218.886075000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>12.283024</v>
+        <v>12.283023999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.360000</v>
+        <v>1010.36</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.924000</v>
+        <v>-143.92400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>44229.658190</v>
+        <v>44229.658190000002</v>
       </c>
       <c r="BE24" s="1">
         <v>12.286016</v>
       </c>
       <c r="BF24" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.748000</v>
+        <v>-229.74799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>44240.308782</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.288975</v>
+        <v>12.288975000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.440000</v>
+        <v>1135.44</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.654000</v>
+        <v>-367.654</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>44250.929615</v>
+        <v>44250.929615000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.291925</v>
+        <v>12.291925000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.638000</v>
+        <v>-581.63800000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>44261.992385</v>
+        <v>44261.992384999998</v>
       </c>
       <c r="BT24" s="1">
         <v>12.294998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="BV24" s="1">
-        <v>-810.661000</v>
+        <v>-810.66099999999994</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>44273.216851</v>
+        <v>44273.216850999997</v>
       </c>
       <c r="BY24" s="1">
         <v>12.298116</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1579.290000</v>
+        <v>1579.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1050.840000</v>
+        <v>-1050.8399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>44286.327633</v>
+        <v>44286.327633000001</v>
       </c>
       <c r="CD24" s="1">
         <v>12.301758</v>
       </c>
       <c r="CE24" s="1">
-        <v>1994.960000</v>
+        <v>1994.96</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1611.460000</v>
+        <v>-1611.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>44112.266553</v>
+        <v>44112.266553000001</v>
       </c>
       <c r="B25" s="1">
-        <v>12.253407</v>
+        <v>12.253406999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>910.232000</v>
+        <v>910.23199999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-174.384000</v>
+        <v>-174.38399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>44122.707833</v>
       </c>
       <c r="G25" s="1">
-        <v>12.256308</v>
+        <v>12.256308000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>924.174000</v>
+        <v>924.17399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-149.377000</v>
+        <v>-149.37700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>44133.555868</v>
+        <v>44133.555868000003</v>
       </c>
       <c r="L25" s="1">
         <v>12.259321</v>
       </c>
       <c r="M25" s="1">
-        <v>943.445000</v>
+        <v>943.44500000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.058000</v>
+        <v>-111.05800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>44144.138478</v>
+        <v>44144.138478000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.262261</v>
+        <v>12.262261000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>950.399000</v>
+        <v>950.399</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.411500</v>
+        <v>-98.411500000000004</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>44154.569344</v>
+        <v>44154.569344000003</v>
       </c>
       <c r="V25" s="1">
         <v>12.265158</v>
       </c>
       <c r="W25" s="1">
-        <v>957.577000</v>
+        <v>957.577</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.924600</v>
+        <v>-86.924599999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>44165.058243</v>
+        <v>44165.058242999999</v>
       </c>
       <c r="AA25" s="1">
         <v>12.268072</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.638000</v>
+        <v>965.63800000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.262300</v>
+        <v>-79.262299999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>44175.813988</v>
+        <v>44175.813988000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.271059</v>
+        <v>12.271058999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.198000</v>
+        <v>971.19799999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.494500</v>
+        <v>-79.494500000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>44186.367366</v>
+        <v>44186.367365999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.273991</v>
+        <v>12.273991000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.639000</v>
+        <v>979.63900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.869500</v>
+        <v>-87.869500000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>44197.433609</v>
@@ -6512,88 +6928,88 @@
         <v>12.277065</v>
       </c>
       <c r="AQ25" s="1">
-        <v>989.099000</v>
+        <v>989.09900000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.111000</v>
+        <v>-103.111</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>44208.602547</v>
+        <v>44208.602547000002</v>
       </c>
       <c r="AU25" s="1">
         <v>12.280167</v>
       </c>
       <c r="AV25" s="1">
-        <v>1000.660000</v>
+        <v>1000.66</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.958000</v>
+        <v>-124.958</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>44219.272985</v>
+        <v>44219.272985000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.283131</v>
+        <v>12.283130999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.330000</v>
+        <v>1010.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.953000</v>
+        <v>-143.953</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>44230.018782</v>
+        <v>44230.018781999999</v>
       </c>
       <c r="BE25" s="1">
         <v>12.286116</v>
       </c>
       <c r="BF25" s="1">
-        <v>1055.810000</v>
+        <v>1055.81</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.737000</v>
+        <v>-229.73699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>44240.735874</v>
+        <v>44240.735873999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.289093</v>
+        <v>12.289092999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.450000</v>
+        <v>1135.45</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.663000</v>
+        <v>-367.66300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>44251.355482</v>
+        <v>44251.355481999999</v>
       </c>
       <c r="BO25" s="1">
         <v>12.292043</v>
       </c>
       <c r="BP25" s="1">
-        <v>1267.300000</v>
+        <v>1267.3</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.590000</v>
+        <v>-581.59</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>44262.410055</v>
@@ -6602,302 +7018,303 @@
         <v>12.295114</v>
       </c>
       <c r="BU25" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-810.768000</v>
+        <v>-810.76800000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>44273.662258</v>
+        <v>44273.662257999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.298240</v>
+        <v>12.29824</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1579.260000</v>
+        <v>1579.26</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1050.700000</v>
+        <v>-1050.7</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>44286.865761</v>
+        <v>44286.865761000001</v>
       </c>
       <c r="CD25" s="1">
         <v>12.301907</v>
       </c>
       <c r="CE25" s="1">
-        <v>1992.790000</v>
+        <v>1992.79</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1612.270000</v>
+        <v>-1612.27</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>44112.949574</v>
+        <v>44112.949573999998</v>
       </c>
       <c r="B26" s="1">
-        <v>12.253597</v>
+        <v>12.253596999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>910.319000</v>
+        <v>910.31899999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-174.270000</v>
+        <v>-174.27</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>44123.397800</v>
+        <v>44123.397799999999</v>
       </c>
       <c r="G26" s="1">
         <v>12.256499</v>
       </c>
       <c r="H26" s="1">
-        <v>923.455000</v>
+        <v>923.45500000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-149.184000</v>
+        <v>-149.184</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>44133.902539</v>
+        <v>44133.902539000002</v>
       </c>
       <c r="L26" s="1">
-        <v>12.259417</v>
+        <v>12.259416999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>943.644000</v>
+        <v>943.64400000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.158000</v>
+        <v>-111.158</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>44144.486670</v>
+        <v>44144.486669999998</v>
       </c>
       <c r="Q26" s="1">
         <v>12.262357</v>
       </c>
       <c r="R26" s="1">
-        <v>950.378000</v>
+        <v>950.37800000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.397000</v>
+        <v>-98.397000000000006</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>44154.914560</v>
+        <v>44154.914559999997</v>
       </c>
       <c r="V26" s="1">
-        <v>12.265254</v>
+        <v>12.265254000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>957.421000</v>
+        <v>957.42100000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.080700</v>
+        <v>-87.080699999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>44165.727345</v>
+        <v>44165.727344999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.268258</v>
+        <v>12.268257999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.744000</v>
+        <v>965.74400000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.261000</v>
+        <v>-79.260999999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>44176.192931</v>
+        <v>44176.192930999998</v>
       </c>
       <c r="AF26" s="1">
         <v>12.271165</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.235000</v>
+        <v>971.23500000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.518000</v>
+        <v>-79.518000000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>44186.761369</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.274100</v>
+        <v>12.274100000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.642000</v>
+        <v>979.64200000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.863900</v>
+        <v>-87.863900000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>44197.824952</v>
+        <v>44197.824952000003</v>
       </c>
       <c r="AP26" s="1">
         <v>12.277174</v>
       </c>
       <c r="AQ26" s="1">
-        <v>989.100000</v>
+        <v>989.1</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.104000</v>
+        <v>-103.104</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>44208.970552</v>
+        <v>44208.970551999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.280270</v>
+        <v>12.28027</v>
       </c>
       <c r="AV26" s="1">
-        <v>1000.660000</v>
+        <v>1000.66</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.959000</v>
+        <v>-124.959</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>44219.632059</v>
+        <v>44219.632059000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.283231</v>
+        <v>12.283231000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.340000</v>
+        <v>1010.34</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.908000</v>
+        <v>-143.90799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>44230.437934</v>
+        <v>44230.437934000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.286233</v>
+        <v>12.286232999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1055.820000</v>
+        <v>1055.82</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>44241.058238</v>
+        <v>44241.058237999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.289183</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.450000</v>
+        <v>1135.45</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.659000</v>
+        <v>-367.65899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>44251.746527</v>
+        <v>44251.746527000003</v>
       </c>
       <c r="BO26" s="1">
         <v>12.292152</v>
       </c>
       <c r="BP26" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.629000</v>
+        <v>-581.62900000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>44262.841072</v>
+        <v>44262.841072000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.295234</v>
+        <v>12.295234000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-810.754000</v>
+        <v>-810.75400000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>44274.094273</v>
+        <v>44274.094273000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.298360</v>
+        <v>12.298360000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1579.250000</v>
+        <v>1579.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1050.740000</v>
+        <v>-1050.74</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>44287.407889</v>
+        <v>44287.407889000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.302058</v>
+        <v>12.302058000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1995.380000</v>
+        <v>1995.38</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1612.230000</v>
+        <v>-1612.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>